--- a/to_be_paid.xlsx
+++ b/to_be_paid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329" count="329">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341" count="341">
   <x:si>
     <x:t>company</x:t>
   </x:si>
@@ -34,6 +34,462 @@
     <x:t>email</x:t>
   </x:si>
   <x:si>
+    <x:t>A. Hofer Transporte GmbH &amp; CoKG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U44651006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT322050600800004046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPKUAT22XXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>office@hofertrans.at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albert Frei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT_00373790211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT31L0808111603000303014045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RZSBIT21303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@a-frei.com </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alfred Heim Transporte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U57333424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT90 3635 8000 0410 1598</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RZTIAT22358</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sonja.t@speed.at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Almetrans Sp. z o.o.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PL_5992892150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PL72114018500000248757001002 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>BREXPLPW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@almetrans.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arthur Welter Slovakia SRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK_2022005964</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK04 1100 0000 0029 2681 4509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TATRSKBX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>claude.quaring@awelter.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arthur Welter Transports Sàrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LU_16468636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LU38 0030 0001 9636 0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BGLLLULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>750.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Berger Bau AG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_812026629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE34 7402 0074 0002 8473 96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HYVEDEMM445</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Peter.Gross@bergerbau.eu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Berger Beton AG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_812026637</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE41 7402 0074 0002 7493 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Erwin.Gessl@bergerbeton.eu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Berger Spedition GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_813978788</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE77 7402 0074 0002 7044 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bilfinger arnholdt GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_818524779</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE 79 4207 0062 0240 1818 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEUTDEDE420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>swen.kellermeier@bilfinger.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bilfinger SE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_143837199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE07 6708 0050 0658 1092 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DRESDEFF670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bischofberger Internationale Transport-GmbH &amp; Co. KG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE 255 617 630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE92 6509 1040 0470 4750 05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GENODES1LEU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@bischofberger-transporte.eu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Braun Transport Sp. z o.o.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PL_7640103876</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PL70 1750 1266 0000 0000 2375 9427</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RCBWPLPW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>harald.pajnik@braunsped.at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Braun Transporte S.R.L.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RO_21562338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT61 3743 1000 0249 6255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RVVGAT2B431</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Braunsped Sp. z o.o.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PL_7642390584</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT64 3743 1000 0248 0390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAIL-LOC SARL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FR_73507844264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FR0930002079620000466302V86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CRLYFRPP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAGN-LINEATRANS Transporte GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U39964400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT72 2050 6077 0005 8071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>melanie.dagnlineatrans@speed.at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dolomiten Cargo GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U64523304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT21 4073 0000 3000 2290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OVLIAT21XXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dietmar.r@dolomiten-cargo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fixit-TI SA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CH_102737365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CH39 0483 5021 3446 2100 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CRESCHZZ80A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>philipp.hugentobler@fixit.ch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fixkraft-Futtermittel GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U43500608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT331508000221002074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OBKLAT2L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Florian Oberparleiter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flatz Transport- &amp; Logistik Gesellschaft mbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U38028004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT87 3743 1000 0246 9500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>heinz.reisinger@braunsped.at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frankstahl Rohr- und Stahlhandelsgesellschaft m.b.H.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U40146908</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT76 3200000006608780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RLNWATWW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ronald.nagy@frankstahl.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frischli Milchwerk Weißenfels GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_811389020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE 10 8005 3000 3000 0095 49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOLADE21BLK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hans.Holtorf@frischli.de</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frischli Milchwerke GmbH </x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_116150032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE 40 2565 0106 0000 3006 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOLADE21NIB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frischli Milchwerke GmbH &amp; Co. Huber oHG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_185722824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE 44 7435 1430 0000 0150 08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BYLADEM1EGF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frode Laursen A/S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DK_29482713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DK7271100002900041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SYBKDK22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>anbal@frode-laursen.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hasi truck Lkw-Werkstatt-Betrieb Beteiligungs GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_813894687</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE90 7003 1000 0000 0452 45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHLSDEM1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pia.Eilens-Goetze@hasit.de</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HASIT Trockenmörtel-Gesellschaft mit beschränkter Haftung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_232658345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE83 7002 1180 0005 3278 57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HYVEDEMM418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Holzwerkstoffe Vertriebsholding AG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U59070329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT55 1100 0097 9317 8600</x:t>
+  </x:si>
+  <x:si>
+    <x:t> BKAUATWW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>michaela.schneider@frischeis.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HS Hermann Schmid Gütertransporte Gesellschaft m.b.H.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U32403805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT204239000630000700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VBOEATWWINN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>th.lang@der-schmid.at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Imholz GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_141625421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE86 8602 0086 0006 7318 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HYVEDEMM495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J. u. A. Frischeis GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U18322205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT73 1100 0007 9101 4415 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAF ZENGERER GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U18334103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT48 1100 0097 9318 2800</x:t>
+  </x:si>
+  <x:si>
     <x:t>Josa Trans Aliment SL</x:t>
   </x:si>
   <x:si>
@@ -46,12 +502,21 @@
     <x:t>CAIXESBB</x:t>
   </x:si>
   <x:si>
-    <x:t>1000.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>josatransal@gmail.com</x:t>
   </x:si>
   <x:si>
+    <x:t>Josef Gertl Geselldschaft m.b.H.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U33146100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT023635800005022645</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guenther.huber@gertl-trans.at</x:t>
+  </x:si>
+  <x:si>
     <x:t>JOSEFA ANGUSTIA ROSA CERVANTES</x:t>
   </x:si>
   <x:si>
@@ -64,12 +529,90 @@
     <x:t>UCJAES2M</x:t>
   </x:si>
   <x:si>
-    <x:t>100.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>contabilidad@isabelalonso.net</x:t>
   </x:si>
   <x:si>
+    <x:t>KAGER SAS DI EGON KAGER &amp; C.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT_00618130215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT18U0826958150000303003001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RZSBIT21342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kagerkg@rolmail.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KOBLER MICHAEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT_01198340216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT30T0585658630043570006931</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BPAAIT2B043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rosamaria@koblertrans.it</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KOBLER S.A.S. DI GAMPER ROSA MARIA &amp; CO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT_02516410210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT75T0585658630043571162264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koidl Transport Gesellschaft mbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U33533209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT21 3503 9000 0001 2252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RVSAAT2S039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fk@koidl-trans.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KREISEL-Technika Budowlana Sp. z o.o.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PL_7810017450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PL62 1750 1019 0000 0000 0099 6278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bozena.krela@kreisel.pl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUIS TORTOSA SEGOVIA </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES_21630435Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES6201280641730500001982</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BKBKESMMXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>felipeduran@luistortosa.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>MARIA DEL CARMEN REDONDO RUIZ</x:t>
   </x:si>
   <x:si>
@@ -82,12 +625,54 @@
     <x:t>CCRIES2A</x:t>
   </x:si>
   <x:si>
-    <x:t>500.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>infotransportesrubio@gmail.com</x:t>
   </x:si>
   <x:si>
+    <x:t>Nielsen &amp; Sørensen – Frode Laursen Deutschland GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_815196127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nothegger Transport Logistik GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U32052809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT21 2040 4000 4005 0494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SBGSAT2S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nothegger.sen@nothegger.at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pieper Holz GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_252374957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE82440800500820040300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DRESDEFF440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fj.suereth@pieperholz.de</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Braun internat. Spedition Gesellschaft m.b.H.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U35750200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT30 3743 1000 0245 1805</x:t>
+  </x:si>
+  <x:si>
     <x:t>RAÚL MARTÍNEZ SANCHEZ</x:t>
   </x:si>
   <x:si>
@@ -103,6 +688,213 @@
     <x:t>martamateo@trmtransportes.com</x:t>
   </x:si>
   <x:si>
+    <x:t>RIMOLSA, S.L. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES_B97484745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES5501287632720100001064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BKBKESMM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emi@transmolbo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROCA-TIR, S.L.U.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES_B60284288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES8900810020180001094211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BSABESBBXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@rocatir.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RÖFIX AG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U36629706</x:t>
+  </x:si>
+  <x:si>
+    <x:t>   AT15 1100 0008 6641 8700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>     BKAUATWW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guenter.felder@roefix.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CH_E107976954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CH85 0021 3213 7522 2601 H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UBSWCHZH80A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>josef.sennhauser@roefix.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RÖFIX Spa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT_00848120218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT 26 N 08175 58691 000301003470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RZSBIT21125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>klaus-dieter.agostini@roefix.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sahnemolkerei H. Wiesehoff GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE_811378681</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DE31401545300029000072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WELADE3WXXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info@wiesehoff.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SaVor spol. s.r.o.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK_2120304802</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT19 1506 0001 7103 9472</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rupert.trawoeger@trawoeger.net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scamacon GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U52860104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT43 1506 0001 7116 0096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silotransporte Werfring GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U65474202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT343312400000208900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RLBBAT2E124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hans.werfring@werfring.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Skanol A/S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DK_26076978</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STARK Int. Transport GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U32446902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT38 3635 8000 0064 4484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e.stark@lkw-stark.at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STS Transport GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U57523059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT12 1200 0518 8413 1301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BKAUATWW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m.auer@sts.at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tanzer Handels- und Speditions GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U41508800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT41 4239 0000 0017 4181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>office@tanzer-spedition.at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thorkil Andersen Holding A/S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DK_60523614</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRANSAUR, S.L.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES_B96078050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES3001287632700100001127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emi@transaur.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Transpe Europe GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U37204707</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT45 3200 0000 0063 2877</x:t>
+  </x:si>
+  <x:si>
+    <x:t>winkler@transped.a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Transpe Immofinanz GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U56428716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT14 1200 0518 8407 1901</x:t>
+  </x:si>
+  <x:si>
     <x:t>TRANSPORTES CEREZUELA, S. COOP. AND</x:t>
   </x:si>
   <x:si>
@@ -118,6 +910,21 @@
     <x:t>silvia@transportescerezuela.com</x:t>
   </x:si>
   <x:si>
+    <x:t>TRANSPORTES FRIGORIFICOS TORRADEFLOT, S.A.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES_A08527988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES8900810533930001022109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BSABESBB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jofontor@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>TRANSPORTES LA PALOMA SL</x:t>
   </x:si>
   <x:si>
@@ -130,16 +937,16 @@
     <x:t>t_paloma@hotmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t>CAIL-LOC SARL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FR_73507844264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FR0930002079620000466302V86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CRLYFRPP</x:t>
+    <x:t>Transportes Vicente Gimeno S.L.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES_B46360327</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ES3600494316352110003732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vgimeno@grupotir.com</x:t>
   </x:si>
   <x:si>
     <x:t>TRANSPORTS CAILLOT SAS</x:t>
@@ -154,394 +961,28 @@
     <x:t>CEPAFRPP513</x:t>
   </x:si>
   <x:si>
-    <x:t>Fixit-TI SA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CH_102737365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CH39 0483 5021 3446 2100 0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CRESCHZZ80A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>philipp.hugentobler@fixit.ch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HASIT Trockenmörtel-Gesellschaft mit beschränkter Haftung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_232658345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE83 7002 1180 0005 3278 57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HYVEDEMM418</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pia.Eilens-Goetze@hasit.de</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hasi truck Lkw-Werkstatt-Betrieb Beteiligungs GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_813894687</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE90 7003 1000 0000 0452 45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BHLSDEM1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KREISEL-Technika Budowlana Sp. z o.o.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PL_7810017450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PL62 1750 1019 0000 0000 0099 6278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RCBWPLPW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bozena.krela@kreisel.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RÖFIX Spa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT_00848120218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT 26 N 08175 58691 000301003470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RZSBIT21125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>klaus-dieter.agostini@roefix.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RÖFIX AG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U36629706</x:t>
-  </x:si>
-  <x:si>
-    <x:t>   AT15 1100 0008 6641 8700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>     BKAUATWW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guenter.felder@roefix.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CH_E107976954</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CH85 0021 3213 7522 2601 H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UBSWCHZH80A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>josef.sennhauser@roefix.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAF ZENGERER GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U18334103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT48 1100 0097 9318 2800</x:t>
-  </x:si>
-  <x:si>
-    <x:t> BKAUATWW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>michaela.schneider@frischeis.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>J. u. A. Frischeis GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U18322205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT73 1100 0007 9101 4415 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Holzwerkstoffe Vertriebsholding AG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U59070329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT55 1100 0097 9317 8600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Imholz GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_141625421</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE86 8602 0086 0006 7318 21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HYVEDEMM495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flatz Transport- &amp; Logistik Gesellschaft mbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U35750200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT87 3743 1000 0246 9500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RVVGAT2B431</x:t>
-  </x:si>
-  <x:si>
-    <x:t>heinz.reisinger@braunsped.at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DAGN-LINEATRANS Transporte GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U39964400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT72 2050 6077 0005 8071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SPKUAT22XXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>melanie.dagnlineatrans@speed.at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hermann Schmid Gütertransporte GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U32403805</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT204239000630000700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VBOEATWWINN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>th.lang@der-schmid.at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Braun internat. Spedition Gesellschaft m.b.H.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT30 3743 1000 0245 1805</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KOBLER S.A.S. DI GAMPER ROSA MARIA &amp; CO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT_02516410210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT75T0585658630043571162264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BPAAIT2B043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rosamaria@koblertrans.it</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KOBLER MICHAEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT_01198340216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT30T0585658630043570006931</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STARK Int. Transport GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U32446902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT38 3635 8000 0064 4484</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RZTIAT22358</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e.stark@lkw-stark.at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A. Hofer Transporte GmbH &amp; CoKG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U44651006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT322050600800004046</x:t>
-  </x:si>
-  <x:si>
-    <x:t>office@hofertrans.at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Braun Transporte S.R.L.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RO_21562338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT61 3743 1000 0249 6255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>harald.pajnik@braunsped.at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Müller Logistik AG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CH_E-106.847.567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT64 3743 1000 0248 0390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Braun Internat. Spedition s.r.o.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CZ_26047837</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT87 3743 1000 0251 1210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Braunsped Sp. z o.o.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PL_7642390584</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Braun Transport Sp. z o.o.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PL_7640103876</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PL70 1750 1266 0000 0000 2375 9427</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albert Frei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT_00373790211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT31L0808111603000303014045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RZSBIT21303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info@a-frei.com </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Almetrans Sp. z o.o.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PL_5992892150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PL72114018500000248757001002 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>BREXPLPW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info@almetrans.pl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resinger Cargo Sped Srl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RO_24763476</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT21 4073 0000 3000 2290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OVLIAT21XXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dietmar.r@dolomiten-cargo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dolomiten Cargo GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U64523304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koidl Transport Gesellschaft mbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U33533209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT21 3503 9000 0001 2252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RVSAAT2S039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fk@koidl-trans.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Josef Gertl Geselldschaft m.b.H.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U33146100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT023635800005022645</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guenther.huber@gertl-trans.at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tanzer Handels- und Speditions GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U41508800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT41 4239 0000 0017 4181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>office@tanzer-spedition.at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HS Hermann Schmid Gütertransporte Gesellschaft m.b.H.</x:t>
+    <x:t>Rupert Tragwöger</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_10932322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trawöger Transport Gesellschaft m. b. H.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U22039309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TSF Transport GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT_U49586407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AT52 3451 0000 0201 0502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RZOOAT2L510</x:t>
   </x:si>
   <x:si>
     <x:t>Unitrans Transport GmbH in Liqu.</x:t>
@@ -559,448 +1000,43 @@
     <x:t>peter.gruener@stb-gruener.at</x:t>
   </x:si>
   <x:si>
-    <x:t>Alfred Heim Transporte</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U57333424</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT90 3635 8000 0410 1598</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sonja.t@speed.at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STS Transport GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U57523059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT12 1200 0518 8413 1301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BKAUATWW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m.auer@sts.at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Transpe Europe GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U37204707</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT45 3200 0000 0063 2877</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RLNWATWW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>winkler@transped.a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Transpe Immofinanz GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U56428716</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT14 1200 0518 8407 1901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nothegger Transport Logistik GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U32052809</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT21 2040 4000 4005 0494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SBGSAT2S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nothegger.sen@nothegger.at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KAGER SAS DI EGON KAGER &amp; C.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT_00618130215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT18U0826958150000303003001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RZSBIT21342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kagerkg@rolmail.net</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trawöger Transport Gesellschaft m. b. H.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U22039309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT19 1506 0001 7103 9472</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OBKLAT2L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rupert.trawoeger@trawoeger.net</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TSF Transport GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U49586407</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT52 3451 0000 0201 0502</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RZOOAT2L510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scamacon GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U52860104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT43 1506 0001 7116 0096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SaVor spol. s.r.o.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SK_2120304802</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trawöger Rupert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bischofberger Internationale Transport-GmbH &amp; Co. KG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE 255 617 630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE92 6509 1040 0470 4750 05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GENODES1LEU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info@bischofberger-transporte.eu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Frankstahl Rohr- und Stahlhandelsgesellschaft m.b.H.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U40146908</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT76 3200000006608780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ronald.nagy@frankstahl.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUIS TORTOSA SEGOVIA </x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES_21630435Q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES6201280641730500001982</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BKBKESMMXXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>felipeduran@luistortosa.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RIMOLSA, S.L. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES_B97484745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES5501287632720100001064</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BKBKESMM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emi@transmolbo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROCA-TIR, S.L.U.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES_B60284288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES8900810020180001094211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BSABESBBXXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info@rocatir.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TRANSAUR, S.L.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES_B96078050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES3001287632700100001127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emi@transaur.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TRANSPORTES FRIGORIFICOS TORRADEFLOT, S.A.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES_A08527988</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES8900810533930001022109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BSABESBB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jofontor@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Transportes Vicente Gimeno S.L.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES_B46360327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ES3600494316352110003732</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vgimeno@grupotir.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Berger Beton AG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_812026637</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE41 7402 0074 0002 7493 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HYVEDEMM445</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Erwin.Gessl@bergerbeton.eu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Berger Bau AG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_812026629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE34 7402 0074 0002 8473 96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter.Gross@bergerbau.eu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Berger Spedition GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_813978788</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE77 7402 0074 0002 7044 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arthur Welter Transports Sàrl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LU_16468636</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LU38 0030 0001 9636 0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BGLLLULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>750.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>claude.quaring@awelter.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arthur Welter Slovakia SRO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SK_2022005964</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SK04 1100 0000 0029 2681 4509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TATRSKBX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bilfinger SE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_143837199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE07 6708 0050 0658 1092 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DRESDEFF670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>swen.kellermeier@bilfinger.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bilfinger arnholdt GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_818524779</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE 79 4207 0062 0240 1818 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEUTDEDE420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frischli Milchwerke GmbH </x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_116150032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE 40 2565 0106 0000 3006 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOLADE21NIB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hans.Holtorf@frischli.de</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frischli Milchwerk Weißenfels GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_811389020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE 10 8005 3000 3000 0095 49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOLADE21BLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frischli Milchwerke GmbH &amp; Co. Huber oHG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_185722824</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE 44 7435 1430 0000 0150 08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BYLADEM1EGF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sahnemolkerei H. Wiesehoff GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_811378681</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE31401545300029000072</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WELADE3WXXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info@wiesehoff.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Frode Laursen A/S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DK_29482713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DK7271100002900041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SYBKDK22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>anbal@frode-laursen.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thorkil Andersen Holding A/S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DK_60523614</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Skanol A/S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DK_26076978</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nielsen &amp; Sørensen – Frode Laursen Deutschland GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_815196127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fixkraft-Futtermittel GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT_U43500608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AT331508000221002074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Florian Oberparleiter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pieper Holz GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE_252374957</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DE82440800500820040300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DRESDEFF440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fj.suereth@pieperholz.de</x:t>
+    <x:t>SARL SOCIETE DE TRANSPORTS BORDELAIS </x:t>
+  </x:si>
+  <x:si>
+    <x:t>FR_72439613720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FR7610057192070009290070171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CMCIFRPP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jm.lescarret@orange.fr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAS KIMMEL FINANCES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FR_82424183028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FR7610278056060001436934503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CMCIFR2A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>laurent@kimmel-transports.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SARL KIMMEL TRANSPORTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FR_09347823957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FR7610278056060001402774595</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1437,70 +1473,70 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -1517,244 +1553,247 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="F9" s="0" t="s">
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
+      <x:c r="E11" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="D12" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="D13" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="s">
+      <x:c r="E13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="D14" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
+      <x:c r="E14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
         <x:v>69</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="D20" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="E20" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="D20" s="0" t="s">
+      <x:c r="F20" s="0" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
@@ -1771,27 +1810,27 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>105</x:v>
@@ -1811,7 +1850,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
         <x:v>110</x:v>
@@ -1822,116 +1861,116 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
-        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>133</x:v>
@@ -1939,979 +1978,979 @@
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F33" s="0" t="s">
-        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
       <x:c r="A42" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
       <x:c r="A43" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
       <x:c r="A44" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
       <x:c r="A45" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
       <x:c r="A46" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
       <x:c r="A47" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6">
       <x:c r="A48" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6">
       <x:c r="A49" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6">
       <x:c r="A50" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
       <x:c r="A51" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6">
       <x:c r="A52" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:6">
       <x:c r="A53" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:6">
       <x:c r="A54" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:6">
       <x:c r="A55" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:6">
       <x:c r="A56" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:6">
       <x:c r="A57" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:6">
       <x:c r="A58" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:6">
       <x:c r="A59" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:6">
       <x:c r="A60" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:6">
       <x:c r="A61" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:6">
       <x:c r="A62" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:6">
       <x:c r="A63" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:6">
       <x:c r="A64" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:6">
       <x:c r="A65" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:6">
       <x:c r="A66" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:6">
       <x:c r="A67" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:6">
       <x:c r="A68" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:6">
       <x:c r="A69" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:6">
       <x:c r="A70" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
         <x:v>296</x:v>
       </x:c>
-      <x:c r="B70" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-      <x:c r="C70" s="0" t="s">
-        <x:v>298</x:v>
-      </x:c>
-      <x:c r="D70" s="0" t="s">
-        <x:v>299</x:v>
-      </x:c>
       <x:c r="E70" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:6">
       <x:c r="A71" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F71" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:6">
       <x:c r="A72" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:6">
       <x:c r="A73" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:6">
       <x:c r="A74" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:6">
       <x:c r="A75" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:6">
       <x:c r="A76" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:6">
       <x:c r="A77" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:6">
       <x:c r="A78" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
